--- a/new template.xlsx
+++ b/new template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwasa85p\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwasa85p\Documents\GitHub\PermuSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612005BB-BE7C-4336-A35C-524432E022B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E582398-772B-4677-A660-6D1B865A98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topic.list1" sheetId="5" r:id="rId1"/>
@@ -49,14 +49,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="189">
   <si>
     <t>Basket of 8</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>systematic literature review</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>topic.list2</t>
   </si>
   <si>
-    <t>search field</t>
-  </si>
-  <si>
     <t>SOURCE-ID(15074)</t>
   </si>
   <si>
@@ -582,372 +576,15 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>ignored if x or y are journals</t>
-  </si>
-  <si>
-    <t>ignored if x or y are topic lists</t>
-  </si>
-  <si>
-    <t>TITLE-ABS-KEY("bibliometric*")</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>our broad set</t>
-  </si>
-  <si>
-    <t>econometric*</t>
-  </si>
-  <si>
     <t>survey*</t>
   </si>
   <si>
     <t>questionn*</t>
   </si>
   <si>
-    <t>respondent*</t>
-  </si>
-  <si>
-    <t>response rate</t>
-  </si>
-  <si>
-    <t>regress*</t>
-  </si>
-  <si>
-    <t>*ANOVA</t>
-  </si>
-  <si>
-    <t>*ANCOVA</t>
-  </si>
-  <si>
-    <t>factor analy*</t>
-  </si>
-  <si>
-    <t>logistic test</t>
-  </si>
-  <si>
-    <t>t-test</t>
-  </si>
-  <si>
-    <t>chi-square</t>
-  </si>
-  <si>
-    <t>SEM</t>
-  </si>
-  <si>
-    <t>structural equation modelling</t>
-  </si>
-  <si>
-    <t>PLS-SEM</t>
-  </si>
-  <si>
-    <t>lisrel</t>
-  </si>
-  <si>
-    <t>data mining</t>
-  </si>
-  <si>
-    <t>blog mining</t>
-  </si>
-  <si>
-    <t>web mining</t>
-  </si>
-  <si>
-    <t>text mining</t>
-  </si>
-  <si>
-    <t>online review*</t>
-  </si>
-  <si>
-    <t>consumer review*</t>
-  </si>
-  <si>
-    <t>customer review*</t>
-  </si>
-  <si>
-    <t>user review*</t>
-  </si>
-  <si>
-    <t>transaction data</t>
-  </si>
-  <si>
-    <t>posts</t>
-  </si>
-  <si>
-    <t>transaction log analys*</t>
-  </si>
-  <si>
-    <t>Krippendorff</t>
-  </si>
-  <si>
-    <t>webometric*</t>
-  </si>
-  <si>
-    <t>cybermetric*</t>
-  </si>
-  <si>
-    <t>link analys*</t>
-  </si>
-  <si>
-    <t>document analys*</t>
-  </si>
-  <si>
-    <t>textual analys*</t>
-  </si>
-  <si>
-    <t>NLP</t>
-  </si>
-  <si>
-    <t>natural language processing</t>
-  </si>
-  <si>
-    <t>sentiment analys*</t>
-  </si>
-  <si>
-    <t>bag of words</t>
-  </si>
-  <si>
-    <t>machine translat*</t>
-  </si>
-  <si>
-    <t>semantic</t>
-  </si>
-  <si>
-    <t>linguistic factor*</t>
-  </si>
-  <si>
-    <t>content analys*</t>
-  </si>
-  <si>
-    <t>named entity recognition</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>relation extraction</t>
-  </si>
-  <si>
-    <t>topic model*</t>
-  </si>
-  <si>
-    <t>LDA</t>
-  </si>
-  <si>
-    <t>phychophysiological</t>
-  </si>
-  <si>
-    <t>fMRI</t>
-  </si>
-  <si>
-    <t>EEG</t>
-  </si>
-  <si>
-    <t>eye tracking</t>
-  </si>
-  <si>
-    <t>neuroimaging</t>
-  </si>
-  <si>
-    <t>neuroIS</t>
-  </si>
-  <si>
-    <t>neurophysiological</t>
-  </si>
-  <si>
-    <t>ECG</t>
-  </si>
-  <si>
-    <t>longitudinal</t>
-  </si>
-  <si>
-    <t>panel data</t>
-  </si>
-  <si>
-    <t>growth model*</t>
-  </si>
-  <si>
-    <t>growth curve</t>
-  </si>
-  <si>
-    <t>latent growth</t>
-  </si>
-  <si>
-    <t>event stud*</t>
-  </si>
-  <si>
-    <t>time periods</t>
-  </si>
-  <si>
-    <t>time-varying</t>
-  </si>
-  <si>
-    <t>markov</t>
-  </si>
-  <si>
-    <t>time points</t>
-  </si>
-  <si>
-    <t>points in time</t>
-  </si>
-  <si>
-    <t>qualitative</t>
-  </si>
-  <si>
-    <t>case stud*</t>
-  </si>
-  <si>
-    <t>interview*</t>
-  </si>
-  <si>
-    <t>*ethnograph*</t>
-  </si>
-  <si>
-    <t>action research</t>
-  </si>
-  <si>
-    <t>focus group*</t>
-  </si>
-  <si>
-    <t>grounded theor*</t>
-  </si>
-  <si>
-    <t>discourse analys*</t>
-  </si>
-  <si>
-    <t>phenomenological</t>
-  </si>
-  <si>
-    <t>delphi stud*</t>
-  </si>
-  <si>
-    <t>participant observation</t>
-  </si>
-  <si>
-    <t>hammersley</t>
-  </si>
-  <si>
-    <t>think aloud</t>
-  </si>
-  <si>
-    <t>machine tranlat*</t>
-  </si>
-  <si>
-    <t>questionnaire*</t>
-  </si>
-  <si>
-    <t>factorial experiment</t>
-  </si>
-  <si>
-    <t>factor analys*</t>
-  </si>
-  <si>
-    <t>CFA</t>
-  </si>
-  <si>
-    <t>EFA</t>
-  </si>
-  <si>
-    <t>effect size*</t>
-  </si>
-  <si>
-    <t>estimat*</t>
-  </si>
-  <si>
-    <t>measure*</t>
-  </si>
-  <si>
-    <t>control for</t>
-  </si>
-  <si>
-    <t>moderated by</t>
-  </si>
-  <si>
-    <t>mediated by</t>
-  </si>
-  <si>
-    <t>moderator</t>
-  </si>
-  <si>
-    <t>mediator</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>logistic</t>
-  </si>
-  <si>
-    <t>quantify</t>
-  </si>
-  <si>
-    <t>difference-in-difference</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>large sample</t>
-  </si>
-  <si>
-    <t>mixed method*</t>
-  </si>
-  <si>
-    <t>experiment*</t>
-  </si>
-  <si>
-    <t>factorial design</t>
-  </si>
-  <si>
-    <t>confederate</t>
-  </si>
-  <si>
-    <t>systematic literature</t>
-  </si>
-  <si>
-    <t>meta-analys*</t>
-  </si>
-  <si>
-    <t>bibliometric*</t>
-  </si>
-  <si>
-    <t>scientometric*</t>
-  </si>
-  <si>
-    <t>meta-research</t>
-  </si>
-  <si>
-    <t>research on research</t>
-  </si>
-  <si>
-    <t>h-index</t>
-  </si>
-  <si>
-    <t>citation analys*</t>
-  </si>
-  <si>
-    <t>impact factor</t>
-  </si>
-  <si>
-    <t>simulation OR"million runs"</t>
-  </si>
-  <si>
-    <t>*thousand runs</t>
-  </si>
-  <si>
-    <t>of runs</t>
-  </si>
-  <si>
-    <t>bootstrap*</t>
-  </si>
-  <si>
-    <t>design science</t>
-  </si>
-  <si>
-    <t>DSR</t>
-  </si>
-  <si>
     <t>articles or conference papers</t>
   </si>
   <si>
@@ -958,13 +595,46 @@
   </si>
   <si>
     <t>continued as I&amp;O - separate coverage</t>
+  </si>
+  <si>
+    <t>&gt;B and &gt;5% of papers on "information systems"</t>
+  </si>
+  <si>
+    <t>digital transf*</t>
+  </si>
+  <si>
+    <t>ignored if x or y is years</t>
+  </si>
+  <si>
+    <t>ignored if x or y is journals</t>
+  </si>
+  <si>
+    <t>ignored if x or y is a topic list</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>TITLE-ABS-KEY("bibliometric*")</t>
+    </r>
+  </si>
+  <si>
+    <t>any</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +689,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1127,18 +804,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1248,70 +1000,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1350,33 +1038,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}" name="Table27" displayName="Table27" ref="A1:E146" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:E146" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BF27C35C-17A1-4E4D-A913-148F34A1A7C6}" name="label" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F7933733-7672-466F-BBEC-517BD7E06E6B}" name="raw search terms" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}" name="Table27" displayName="Table27" ref="A1:C4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="2" tableBorderDxfId="14">
+  <autoFilter ref="A1:C4" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BF27C35C-17A1-4E4D-A913-148F34A1A7C6}" name="label" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F7933733-7672-466F-BBEC-517BD7E06E6B}" name="raw search terms" dataDxfId="4">
       <calculatedColumnFormula>CHAR(34)&amp;A2&amp;CHAR(34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DC67B56-DDDD-4446-9A4F-14A9B88FDDAD}" name="search term" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{2DC67B56-DDDD-4446-9A4F-14A9B88FDDAD}" name="search term" dataDxfId="3">
       <calculatedColumnFormula>"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{78FEC508-3BF7-4B7F-A489-13C2E930BA78}" name="other"/>
-    <tableColumn id="5" xr3:uid="{32F49608-8417-4576-863E-A5DEB6BFA2F2}" name="search field"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}" name="Table2" displayName="Table2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:D3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CD303BF-EF22-44A0-A16B-4E8EC53B64DD}" name="label" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8868C6C6-B7F2-4CBA-B629-38EC7207CA05}" name="raw search terms" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{367C27AF-1D27-4B20-94EA-EDC20403234E}" name="search term" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:C3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2CD303BF-EF22-44A0-A16B-4E8EC53B64DD}" name="label" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{8868C6C6-B7F2-4CBA-B629-38EC7207CA05}" name="raw search terms" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{367C27AF-1D27-4B20-94EA-EDC20403234E}" name="search term" dataDxfId="9">
       <calculatedColumnFormula>"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8CA8372C-4155-48EE-9C49-DE6FF5B04EE2}" name="other"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1387,16 +1072,16 @@
   <autoFilter ref="A1:K53" xr:uid="{CFFB5EF6-8A19-49D4-926F-685BE311BC23}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F81CF4C9-03C9-403B-BEB8-C3E28C4CC92E}" name="included?"/>
-    <tableColumn id="2" xr3:uid="{319167E8-759E-4E84-99E3-A45869478A17}" name="label" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{319167E8-759E-4E84-99E3-A45869478A17}" name="label" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{18EB2AD3-603A-4803-9516-D43EB94D110D}" name="search term"/>
-    <tableColumn id="14" xr3:uid="{B5CE65A8-B723-4C40-9993-0581420EFAC1}" name="ABDC 2022" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{B5CE65A8-B723-4C40-9993-0581420EFAC1}" name="ABDC 2022" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{07658F66-A883-4C55-A85B-F6B87F635185}" name="Basket of 8"/>
     <tableColumn id="5" xr3:uid="{0B1B1BEC-7906-42D9-AB58-900A4707408F}" name="Basket of 11"/>
     <tableColumn id="6" xr3:uid="{ACDB1E5A-85C1-41AF-A8E9-B896BCF0F761}" name="Litbaskets 16"/>
     <tableColumn id="7" xr3:uid="{6A788038-0DBB-4572-86F8-F7EB386D9761}" name="Litbaskets 29"/>
     <tableColumn id="8" xr3:uid="{B4E205A9-73CC-432A-BCC2-0F0A51B1D728}" name="Litbaskets 51"/>
-    <tableColumn id="9" xr3:uid="{BF444CEA-A810-4327-8D5C-1035DEBB6166}" name="our broad set"/>
-    <tableColumn id="12" xr3:uid="{CEFFCBAA-32A3-4823-93FB-4FCC73D1705D}" name="Coverage and scopus link" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{BF444CEA-A810-4327-8D5C-1035DEBB6166}" name="&gt;B and &gt;5% of papers on &quot;information systems&quot;"/>
+    <tableColumn id="12" xr3:uid="{CEFFCBAA-32A3-4823-93FB-4FCC73D1705D}" name="Coverage and scopus link" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1406,8 +1091,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0130D7EF-ADB1-4A89-AB57-0F13C981E2B4}" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0">
   <autoFilter ref="A1:G7" xr:uid="{0130D7EF-ADB1-4A89-AB57-0F13C981E2B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E7B830F8-7B88-4675-9B1A-07EC9E903435}" name="setting"/>
-    <tableColumn id="2" xr3:uid="{E2DD348D-6F89-4C35-9EB4-415282B92BE0}" name="value"/>
+    <tableColumn id="1" xr3:uid="{E7B830F8-7B88-4675-9B1A-07EC9E903435}" name="setting" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E2DD348D-6F89-4C35-9EB4-415282B92BE0}" name="value" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{5FBF98F3-830E-4072-9B61-F05DE3D58B67}" name="Option 1"/>
     <tableColumn id="4" xr3:uid="{41D6FDCB-72F9-40CB-A024-E88852F09F28}" name="Option 2"/>
     <tableColumn id="5" xr3:uid="{23CBB192-8E6E-482B-AA09-5CA87DC2F15F}" name="Option 3"/>
@@ -1716,1917 +1401,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CC452F-4FA8-4855-8002-C4841ED53406}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="1" t="str">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="14" t="str">
         <f>CHAR(34)&amp;A2&amp;CHAR(34)</f>
-        <v>"econometric*"</v>
-      </c>
-      <c r="C2" s="1" t="str">
+        <v>"digital transf*"</v>
+      </c>
+      <c r="C2" s="14" t="str">
         <f t="shared" ref="C2:C3" si="0">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("econometric*")</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B66" si="1">CHAR(34)&amp;A3&amp;CHAR(34)</f>
+        <v>TITLE-ABS-KEY("digital transf*")</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="14" t="str">
+        <f t="shared" ref="B3:B4" si="1">CHAR(34)&amp;A3&amp;CHAR(34)</f>
         <v>"survey*"</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>TITLE-ABS-KEY("survey*")</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="1" t="str">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="14" t="str">
         <f t="shared" si="1"/>
         <v>"questionn*"</v>
       </c>
-      <c r="C4" s="14" t="str">
-        <f t="shared" ref="C4:C35" si="2">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B4, CHAR(160), " "))&amp;")"</f>
+      <c r="C4" s="16" t="str">
+        <f t="shared" ref="C4" si="2">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B4, CHAR(160), " "))&amp;")"</f>
         <v>TITLE-ABS-KEY("questionn*")</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"respondent*"</v>
-      </c>
-      <c r="C5" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("respondent*")</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"response rate"</v>
-      </c>
-      <c r="C6" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("response rate")</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"regress*"</v>
-      </c>
-      <c r="C7" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("regress*")</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"*ANOVA"</v>
-      </c>
-      <c r="C8" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("*ANOVA")</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"*ANCOVA"</v>
-      </c>
-      <c r="C9" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("*ANCOVA")</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"factor analy*"</v>
-      </c>
-      <c r="C10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("factor analy*")</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"logistic test"</v>
-      </c>
-      <c r="C11" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("logistic test")</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"t-test"</v>
-      </c>
-      <c r="C12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("t-test")</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"chi-square"</v>
-      </c>
-      <c r="C13" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("chi-square")</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"SEM"</v>
-      </c>
-      <c r="C14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("SEM")</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"structural equation modelling"</v>
-      </c>
-      <c r="C15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("structural equation modelling")</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"PLS-SEM"</v>
-      </c>
-      <c r="C16" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("PLS-SEM")</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"lisrel"</v>
-      </c>
-      <c r="C17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("lisrel")</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"data mining"</v>
-      </c>
-      <c r="C18" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("data mining")</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"blog mining"</v>
-      </c>
-      <c r="C19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("blog mining")</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"web mining"</v>
-      </c>
-      <c r="C20" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("web mining")</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"text mining"</v>
-      </c>
-      <c r="C21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("text mining")</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"online review*"</v>
-      </c>
-      <c r="C22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("online review*")</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"consumer review*"</v>
-      </c>
-      <c r="C23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("consumer review*")</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"customer review*"</v>
-      </c>
-      <c r="C24" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("customer review*")</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"user review*"</v>
-      </c>
-      <c r="C25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("user review*")</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"transaction data"</v>
-      </c>
-      <c r="C26" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("transaction data")</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"posts"</v>
-      </c>
-      <c r="C27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("posts")</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"transaction log analys*"</v>
-      </c>
-      <c r="C28" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("transaction log analys*")</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"Krippendorff"</v>
-      </c>
-      <c r="C29" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("Krippendorff")</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"webometric*"</v>
-      </c>
-      <c r="C30" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("webometric*")</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"cybermetric*"</v>
-      </c>
-      <c r="C31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("cybermetric*")</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"link analys*"</v>
-      </c>
-      <c r="C32" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("link analys*")</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"document analys*"</v>
-      </c>
-      <c r="C33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("document analys*")</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"textual analys*"</v>
-      </c>
-      <c r="C34" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("textual analys*")</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"NLP"</v>
-      </c>
-      <c r="C35" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>TITLE-ABS-KEY("NLP")</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"natural language processing"</v>
-      </c>
-      <c r="C36" s="14" t="str">
-        <f t="shared" ref="C36:C67" si="3">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B36, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("natural language processing")</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"sentiment analys*"</v>
-      </c>
-      <c r="C37" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("sentiment analys*")</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"bag of words"</v>
-      </c>
-      <c r="C38" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("bag of words")</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"machine translat*"</v>
-      </c>
-      <c r="C39" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("machine translat*")</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"semantic"</v>
-      </c>
-      <c r="C40" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("semantic")</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"linguistic factor*"</v>
-      </c>
-      <c r="C41" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("linguistic factor*")</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"content analys*"</v>
-      </c>
-      <c r="C42" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("content analys*")</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"named entity recognition"</v>
-      </c>
-      <c r="C43" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("named entity recognition")</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"NER"</v>
-      </c>
-      <c r="C44" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("NER")</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"relation extraction"</v>
-      </c>
-      <c r="C45" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("relation extraction")</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"topic model*"</v>
-      </c>
-      <c r="C46" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("topic model*")</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"LDA"</v>
-      </c>
-      <c r="C47" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("LDA")</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"LDA"</v>
-      </c>
-      <c r="C48" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("LDA")</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"phychophysiological"</v>
-      </c>
-      <c r="C49" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("phychophysiological")</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"fMRI"</v>
-      </c>
-      <c r="C50" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("fMRI")</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"EEG"</v>
-      </c>
-      <c r="C51" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("EEG")</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"eye tracking"</v>
-      </c>
-      <c r="C52" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("eye tracking")</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"neuroimaging"</v>
-      </c>
-      <c r="C53" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("neuroimaging")</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"neuroIS"</v>
-      </c>
-      <c r="C54" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("neuroIS")</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"neurophysiological"</v>
-      </c>
-      <c r="C55" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("neurophysiological")</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"ECG"</v>
-      </c>
-      <c r="C56" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("ECG")</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"longitudinal"</v>
-      </c>
-      <c r="C57" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("longitudinal")</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"panel data"</v>
-      </c>
-      <c r="C58" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("panel data")</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"growth model*"</v>
-      </c>
-      <c r="C59" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("growth model*")</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"growth curve"</v>
-      </c>
-      <c r="C60" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("growth curve")</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"latent growth"</v>
-      </c>
-      <c r="C61" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("latent growth")</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"event stud*"</v>
-      </c>
-      <c r="C62" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("event stud*")</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"time periods"</v>
-      </c>
-      <c r="C63" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("time periods")</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"time-varying"</v>
-      </c>
-      <c r="C64" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("time-varying")</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"markov"</v>
-      </c>
-      <c r="C65" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("markov")</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"time points"</v>
-      </c>
-      <c r="C66" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("time points")</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <f t="shared" ref="B67:B130" si="4">CHAR(34)&amp;A67&amp;CHAR(34)</f>
-        <v>"points in time"</v>
-      </c>
-      <c r="C67" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>TITLE-ABS-KEY("points in time")</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"qualitative"</v>
-      </c>
-      <c r="C68" s="14" t="str">
-        <f t="shared" ref="C68:C99" si="5">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B68, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("qualitative")</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"case stud*"</v>
-      </c>
-      <c r="C69" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("case stud*")</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"interview*"</v>
-      </c>
-      <c r="C70" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("interview*")</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"*ethnograph*"</v>
-      </c>
-      <c r="C71" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("*ethnograph*")</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B72" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"action research"</v>
-      </c>
-      <c r="C72" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("action research")</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"focus group*"</v>
-      </c>
-      <c r="C73" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("focus group*")</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B74" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"grounded theor*"</v>
-      </c>
-      <c r="C74" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("grounded theor*")</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B75" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"discourse analys*"</v>
-      </c>
-      <c r="C75" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("discourse analys*")</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"phenomenological"</v>
-      </c>
-      <c r="C76" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("phenomenological")</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"delphi stud*"</v>
-      </c>
-      <c r="C77" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("delphi stud*")</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"participant observation"</v>
-      </c>
-      <c r="C78" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("participant observation")</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"hammersley"</v>
-      </c>
-      <c r="C79" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("hammersley")</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"think aloud"</v>
-      </c>
-      <c r="C80" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("think aloud")</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"growth model*"</v>
-      </c>
-      <c r="C81" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("growth model*")</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"growth curve"</v>
-      </c>
-      <c r="C82" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("growth curve")</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"latent growth"</v>
-      </c>
-      <c r="C83" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("latent growth")</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B84" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"time-varying"</v>
-      </c>
-      <c r="C84" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("time-varying")</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"phychophysiological"</v>
-      </c>
-      <c r="C85" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("phychophysiological")</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"NLP"</v>
-      </c>
-      <c r="C86" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("NLP")</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B87" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"natural language processing"</v>
-      </c>
-      <c r="C87" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("natural language processing")</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"sentiment analys*"</v>
-      </c>
-      <c r="C88" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("sentiment analys*")</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B89" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"bag of words"</v>
-      </c>
-      <c r="C89" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("bag of words")</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"machine tranlat*"</v>
-      </c>
-      <c r="C90" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("machine tranlat*")</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B91" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"data mining"</v>
-      </c>
-      <c r="C91" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("data mining")</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"web mining"</v>
-      </c>
-      <c r="C92" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("web mining")</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"blog mining"</v>
-      </c>
-      <c r="C93" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("blog mining")</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"SEM"</v>
-      </c>
-      <c r="C94" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("SEM")</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B95" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"structural equation modelling"</v>
-      </c>
-      <c r="C95" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("structural equation modelling")</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B96" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"PLS-SEM"</v>
-      </c>
-      <c r="C96" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("PLS-SEM")</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B97" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"lisrel"</v>
-      </c>
-      <c r="C97" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("lisrel")</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"questionnaire*"</v>
-      </c>
-      <c r="C98" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("questionnaire*")</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B99" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"survey*"</v>
-      </c>
-      <c r="C99" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v>TITLE-ABS-KEY("survey*")</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B100" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"econometric*"</v>
-      </c>
-      <c r="C100" s="14" t="str">
-        <f t="shared" ref="C100:C131" si="6">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B100, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("econometric*")</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B101" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"regress*"</v>
-      </c>
-      <c r="C101" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("regress*")</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B102" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"*ANOVA"</v>
-      </c>
-      <c r="C102" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("*ANOVA")</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"*ANCOVA"</v>
-      </c>
-      <c r="C103" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("*ANCOVA")</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B104" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"factorial experiment"</v>
-      </c>
-      <c r="C104" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("factorial experiment")</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="B105" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"factor analys*"</v>
-      </c>
-      <c r="C105" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("factor analys*")</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B106" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"CFA"</v>
-      </c>
-      <c r="C106" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("CFA")</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="B107" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"EFA"</v>
-      </c>
-      <c r="C107" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("EFA")</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="B108" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"effect size*"</v>
-      </c>
-      <c r="C108" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("effect size*")</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"estimat*"</v>
-      </c>
-      <c r="C109" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("estimat*")</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B110" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"measure*"</v>
-      </c>
-      <c r="C110" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("measure*")</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B111" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"control for"</v>
-      </c>
-      <c r="C111" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("control for")</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"moderated by"</v>
-      </c>
-      <c r="C112" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("moderated by")</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B113" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"mediated by"</v>
-      </c>
-      <c r="C113" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("mediated by")</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"moderator"</v>
-      </c>
-      <c r="C114" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("moderator")</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"mediator"</v>
-      </c>
-      <c r="C115" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("mediator")</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B116" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"log"</v>
-      </c>
-      <c r="C116" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("log")</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B117" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"logistic"</v>
-      </c>
-      <c r="C117" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("logistic")</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="B118" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"quantify"</v>
-      </c>
-      <c r="C118" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("quantify")</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="B119" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"difference-in-difference"</v>
-      </c>
-      <c r="C119" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("difference-in-difference")</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"significant"</v>
-      </c>
-      <c r="C120" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("significant")</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"large sample"</v>
-      </c>
-      <c r="C121" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("large sample")</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"online review*"</v>
-      </c>
-      <c r="C122" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("online review*")</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"consumer review*"</v>
-      </c>
-      <c r="C123" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("consumer review*")</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B124" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"customer review*"</v>
-      </c>
-      <c r="C124" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("customer review*")</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B125" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"user review*"</v>
-      </c>
-      <c r="C125" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("user review*")</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B126" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"transaction data"</v>
-      </c>
-      <c r="C126" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("transaction data")</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B127" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"posts"</v>
-      </c>
-      <c r="C127" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("posts")</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B128" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"mixed method*"</v>
-      </c>
-      <c r="C128" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("mixed method*")</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B129" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"experiment*"</v>
-      </c>
-      <c r="C129" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("experiment*")</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B130" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>"factorial design"</v>
-      </c>
-      <c r="C130" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("factorial design")</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B131" s="1" t="str">
-        <f t="shared" ref="B131:B146" si="7">CHAR(34)&amp;A131&amp;CHAR(34)</f>
-        <v>"confederate"</v>
-      </c>
-      <c r="C131" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE-ABS-KEY("confederate")</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"systematic literature"</v>
-      </c>
-      <c r="C132" s="14" t="str">
-        <f t="shared" ref="C132:C146" si="8">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B132, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("systematic literature")</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B133" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"meta-analys*"</v>
-      </c>
-      <c r="C133" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("meta-analys*")</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B134" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"bibliometric*"</v>
-      </c>
-      <c r="C134" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("bibliometric*")</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B135" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"scientometric*"</v>
-      </c>
-      <c r="C135" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("scientometric*")</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B136" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"meta-research"</v>
-      </c>
-      <c r="C136" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("meta-research")</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"research on research"</v>
-      </c>
-      <c r="C137" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("research on research")</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"h-index"</v>
-      </c>
-      <c r="C138" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("h-index")</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B139" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"citation analys*"</v>
-      </c>
-      <c r="C139" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("citation analys*")</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B140" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"impact factor"</v>
-      </c>
-      <c r="C140" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("impact factor")</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B141" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"simulation OR"million runs""</v>
-      </c>
-      <c r="C141" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("simulation OR"million runs"")</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B142" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"*thousand runs"</v>
-      </c>
-      <c r="C142" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("*thousand runs")</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B143" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"of runs"</v>
-      </c>
-      <c r="C143" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("of runs")</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B144" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"bootstrap*"</v>
-      </c>
-      <c r="C144" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("bootstrap*")</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B145" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"design science"</v>
-      </c>
-      <c r="C145" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("design science")</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B146" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>"DSR"</v>
-      </c>
-      <c r="C146" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>TITLE-ABS-KEY("DSR")</v>
       </c>
     </row>
   </sheetData>
@@ -3640,10 +1475,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,38 +1488,35 @@
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1" t="str">
         <f t="shared" ref="C2:C3" si="0">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</f>
         <v>TITLE-ABS-KEY("systematic literature" OR "meta-analys*" OR "bibliometric*" OR "scientometric*" OR "meta-research" OR "research on research")</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3703,10 +1535,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6093806-31EA-4444-AEF7-2A96118080A1}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,10 +1548,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +1559,7 @@
         <v>1993</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B31" si="0">"PUBYEAR IS "&amp;A2</f>
+        <f t="shared" ref="B2:B32" si="0">"PUBYEAR IS "&amp;A2</f>
         <v>PUBYEAR IS 1993</v>
       </c>
     </row>
@@ -3990,6 +1822,15 @@
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>PUBYEAR IS 2022</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2023</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>PUBYEAR IS 2023</v>
       </c>
     </row>
   </sheetData>
@@ -4002,8 +1843,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:K53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4019,1419 +1860,1418 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>300</v>
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>301</v>
-      </c>
-      <c r="D53" s="16"/>
+        <v>180</v>
+      </c>
       <c r="J53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>302</v>
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5556,14 +3396,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="29" width="5.42578125" customWidth="1"/>
@@ -5571,53 +3411,53 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="str">
         <f>C2</f>
@@ -5637,53 +3477,60 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="3">
+        <v>1992</v>
+      </c>
+      <c r="G5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -6231,6 +4078,26 @@
       <c r="N59" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A22:L57">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N22:N57 N59">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -6253,26 +4120,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:L57">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{1ACADC0C-9547-4E86-928A-9610A37C3893}">
       <formula1>$C$2:$F$2</formula1>
@@ -6289,9 +4136,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/new template.xlsx
+++ b/new template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zwasa85p\Documents\GitHub\PermuSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E582398-772B-4677-A660-6D1B865A98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA715B-1E17-4184-9A40-EB709362EF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topic.list1" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="191">
   <si>
     <t>Basket of 8</t>
   </si>
@@ -579,12 +579,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>survey*</t>
-  </si>
-  <si>
-    <t>questionn*</t>
-  </si>
-  <si>
     <t>articles or conference papers</t>
   </si>
   <si>
@@ -610,6 +604,9 @@
   </si>
   <si>
     <t>ignored if x or y is a topic list</t>
+  </si>
+  <si>
+    <t>any</t>
   </si>
   <si>
     <r>
@@ -619,7 +616,7 @@
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -627,14 +624,23 @@
     </r>
   </si>
   <si>
-    <t>any</t>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>"survey*" OR "questionn*"</t>
+  </si>
+  <si>
+    <t>process automat*</t>
+  </si>
+  <si>
+    <t>robotic process*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,9 +697,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -776,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -804,18 +823,91 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1038,14 +1130,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}" name="Table27" displayName="Table27" ref="A1:C4" totalsRowShown="0" headerRowDxfId="15" dataDxfId="2" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}" name="Table27" displayName="Table27" ref="A1:C4" totalsRowShown="0" headerRowDxfId="20" dataDxfId="7" tableBorderDxfId="19">
   <autoFilter ref="A1:C4" xr:uid="{BA499D7B-609F-41DB-8304-366466000CF0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BF27C35C-17A1-4E4D-A913-148F34A1A7C6}" name="label" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F7933733-7672-466F-BBEC-517BD7E06E6B}" name="raw search terms" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{BF27C35C-17A1-4E4D-A913-148F34A1A7C6}" name="label" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F7933733-7672-466F-BBEC-517BD7E06E6B}" name="raw search terms" dataDxfId="9">
       <calculatedColumnFormula>CHAR(34)&amp;A2&amp;CHAR(34)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2DC67B56-DDDD-4446-9A4F-14A9B88FDDAD}" name="search term" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{2DC67B56-DDDD-4446-9A4F-14A9B88FDDAD}" name="search term" dataDxfId="8">
       <calculatedColumnFormula>"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1054,12 +1146,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}" name="Table2" displayName="Table2" ref="A1:C3" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:C3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}" name="Table2" displayName="Table2" ref="A1:C4" totalsRowShown="0" headerRowDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A1:C4" xr:uid="{F03BFF63-6DD8-4871-B127-3CA61CE83735}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CD303BF-EF22-44A0-A16B-4E8EC53B64DD}" name="label" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{8868C6C6-B7F2-4CBA-B629-38EC7207CA05}" name="raw search terms" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{367C27AF-1D27-4B20-94EA-EDC20403234E}" name="search term" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{2CD303BF-EF22-44A0-A16B-4E8EC53B64DD}" name="label" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{8868C6C6-B7F2-4CBA-B629-38EC7207CA05}" name="raw search terms" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{367C27AF-1D27-4B20-94EA-EDC20403234E}" name="search term" dataDxfId="14">
       <calculatedColumnFormula>"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,16 +1164,16 @@
   <autoFilter ref="A1:K53" xr:uid="{CFFB5EF6-8A19-49D4-926F-685BE311BC23}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{F81CF4C9-03C9-403B-BEB8-C3E28C4CC92E}" name="included?"/>
-    <tableColumn id="2" xr3:uid="{319167E8-759E-4E84-99E3-A45869478A17}" name="label" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{319167E8-759E-4E84-99E3-A45869478A17}" name="label" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{18EB2AD3-603A-4803-9516-D43EB94D110D}" name="search term"/>
-    <tableColumn id="14" xr3:uid="{B5CE65A8-B723-4C40-9993-0581420EFAC1}" name="ABDC 2022" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{B5CE65A8-B723-4C40-9993-0581420EFAC1}" name="ABDC 2022" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{07658F66-A883-4C55-A85B-F6B87F635185}" name="Basket of 8"/>
     <tableColumn id="5" xr3:uid="{0B1B1BEC-7906-42D9-AB58-900A4707408F}" name="Basket of 11"/>
     <tableColumn id="6" xr3:uid="{ACDB1E5A-85C1-41AF-A8E9-B896BCF0F761}" name="Litbaskets 16"/>
     <tableColumn id="7" xr3:uid="{6A788038-0DBB-4572-86F8-F7EB386D9761}" name="Litbaskets 29"/>
     <tableColumn id="8" xr3:uid="{B4E205A9-73CC-432A-BCC2-0F0A51B1D728}" name="Litbaskets 51"/>
     <tableColumn id="9" xr3:uid="{BF444CEA-A810-4327-8D5C-1035DEBB6166}" name="&gt;B and &gt;5% of papers on &quot;information systems&quot;"/>
-    <tableColumn id="12" xr3:uid="{CEFFCBAA-32A3-4823-93FB-4FCC73D1705D}" name="Coverage and scopus link" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{CEFFCBAA-32A3-4823-93FB-4FCC73D1705D}" name="Coverage and scopus link" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,13 +1183,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0130D7EF-ADB1-4A89-AB57-0F13C981E2B4}" name="Table4" displayName="Table4" ref="A1:G7" totalsRowShown="0">
   <autoFilter ref="A1:G7" xr:uid="{0130D7EF-ADB1-4A89-AB57-0F13C981E2B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E7B830F8-7B88-4675-9B1A-07EC9E903435}" name="setting" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{E2DD348D-6F89-4C35-9EB4-415282B92BE0}" name="value" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{5FBF98F3-830E-4072-9B61-F05DE3D58B67}" name="Option 1"/>
-    <tableColumn id="4" xr3:uid="{41D6FDCB-72F9-40CB-A024-E88852F09F28}" name="Option 2"/>
-    <tableColumn id="5" xr3:uid="{23CBB192-8E6E-482B-AA09-5CA87DC2F15F}" name="Option 3"/>
-    <tableColumn id="6" xr3:uid="{F4F57919-8A70-428E-8D62-D18C2D845521}" name="Option 4"/>
-    <tableColumn id="7" xr3:uid="{EFC56B19-550D-4B50-8FA1-5F5676AA0195}" name="Comment"/>
+    <tableColumn id="1" xr3:uid="{E7B830F8-7B88-4675-9B1A-07EC9E903435}" name="setting" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E2DD348D-6F89-4C35-9EB4-415282B92BE0}" name="value" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5FBF98F3-830E-4072-9B61-F05DE3D58B67}" name="Option 1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{41D6FDCB-72F9-40CB-A024-E88852F09F28}" name="Option 2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{23CBB192-8E6E-482B-AA09-5CA87DC2F15F}" name="Option 3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F4F57919-8A70-428E-8D62-D18C2D845521}" name="Option 4" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EFC56B19-550D-4B50-8FA1-5F5676AA0195}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1403,8 +1495,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,42 +1518,42 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="14" t="str">
+      <c r="A2" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="16" t="str">
         <f>CHAR(34)&amp;A2&amp;CHAR(34)</f>
         <v>"digital transf*"</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="16" t="str">
         <f t="shared" ref="C2:C3" si="0">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B2, CHAR(160), " "))&amp;")"</f>
         <v>TITLE-ABS-KEY("digital transf*")</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="14" t="str">
+      <c r="A3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="16" t="str">
         <f t="shared" ref="B3:B4" si="1">CHAR(34)&amp;A3&amp;CHAR(34)</f>
-        <v>"survey*"</v>
-      </c>
-      <c r="C3" s="14" t="str">
+        <v>"robotic process*"</v>
+      </c>
+      <c r="C3" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>TITLE-ABS-KEY("survey*")</v>
+        <v>TITLE-ABS-KEY("robotic process*")</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="14" t="str">
+      <c r="A4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>"questionn*"</v>
-      </c>
-      <c r="C4" s="16" t="str">
+        <v>"process automat*"</v>
+      </c>
+      <c r="C4" s="18" t="str">
         <f t="shared" ref="C4" si="2">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B4, CHAR(160), " "))&amp;")"</f>
-        <v>TITLE-ABS-KEY("questionn*")</v>
+        <v>TITLE-ABS-KEY("process automat*")</v>
       </c>
     </row>
   </sheetData>
@@ -1475,11 +1567,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1521,6 +1611,18 @@
       <c r="C3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>TITLE-ABS-KEY("bibliometric*")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f t="shared" ref="C4" si="1">"TITLE-ABS-KEY("&amp;TRIM(SUBSTITUTE(B4, CHAR(160), " "))&amp;")"</f>
+        <v>TITLE-ABS-KEY("survey*" OR "questionn*")</v>
       </c>
     </row>
   </sheetData>
@@ -1843,15 +1945,14 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="59.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="10" width="14.42578125" customWidth="1"/>
@@ -1887,7 +1988,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
         <v>157</v>
@@ -3262,16 +3363,16 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
         <v>179</v>
-      </c>
-      <c r="C53" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" t="s">
-        <v>13</v>
-      </c>
-      <c r="K53" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3396,8 +3497,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,19 +3517,19 @@
       <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="19" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3439,42 +3540,44 @@
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="20" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="str">
+        <v>29</v>
+      </c>
+      <c r="C3" s="20" t="str">
         <f>C2</f>
         <v>topic.list1</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="20" t="str">
         <f t="shared" ref="D3:F3" si="0">D2</f>
         <v>topic.list2</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>years</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>journals</v>
       </c>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3483,15 +3586,17 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3500,8 +3605,12 @@
       <c r="B5" s="3">
         <v>1992</v>
       </c>
-      <c r="G5" t="s">
-        <v>184</v>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3511,14 +3620,16 @@
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D6" s="20" t="s">
         <v>185</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3526,11 +3637,14 @@
         <v>173</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="C7" s="21" t="s">
         <v>186</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
